--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE584F2-A51E-4494-B8A6-5D96512C55B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C88F0074-7568-4A4C-AC11-968D7BA65CB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6863545-E295-4C91-AFA5-9CBD31007952}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{211B57C0-3CE0-41AD-9CE2-364DA9CC13B9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C2E58D6-4B01-4DDB-8B68-F8505476BFDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F446BEFA-529A-4331-96A1-FCDDC495C816}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C88F0074-7568-4A4C-AC11-968D7BA65CB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3460AEF0-7953-4569-A64A-09C59158BF22}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{211B57C0-3CE0-41AD-9CE2-364DA9CC13B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4687B480-70D7-4656-B54E-EBD76DDF47C5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F446BEFA-529A-4331-96A1-FCDDC495C816}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0477D695-3BCC-4526-94A0-9166CEC02D0F}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3460AEF0-7953-4569-A64A-09C59158BF22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{524C7D6B-2D41-4056-A486-59CE4F0BDD61}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4687B480-70D7-4656-B54E-EBD76DDF47C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCD1519-CF04-4850-8246-C541DB2182C8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0477D695-3BCC-4526-94A0-9166CEC02D0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BF8863-D58E-43F4-B26C-9DAD07AB9B7C}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{524C7D6B-2D41-4056-A486-59CE4F0BDD61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEB3FF4E-BF24-4E3B-AB29-8EBA6243BFCF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCD1519-CF04-4850-8246-C541DB2182C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEE2383A-E3ED-47DA-ABD7-C1ECD0AFEDDA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BF8863-D58E-43F4-B26C-9DAD07AB9B7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51F43C0-7D19-4C75-9119-CB39405F5809}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEB3FF4E-BF24-4E3B-AB29-8EBA6243BFCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0C902D2-943A-4034-B69E-CFD3B6FC60B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEE2383A-E3ED-47DA-ABD7-C1ECD0AFEDDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7069C0-79E9-442E-8392-8F3D02067BC3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51F43C0-7D19-4C75-9119-CB39405F5809}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA0C90E-7ACF-44D1-889D-ACA030F02DAB}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0C902D2-943A-4034-B69E-CFD3B6FC60B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D638C103-9BE2-4051-8364-8A52B9113827}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7069C0-79E9-442E-8392-8F3D02067BC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3988AC06-DA71-4764-B9D3-72F74B7282A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA0C90E-7ACF-44D1-889D-ACA030F02DAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8831E566-AC24-45AD-97A8-3DE41BA56712}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D638C103-9BE2-4051-8364-8A52B9113827}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0329872E-D190-4E8C-A07B-E5E22F5EFD6A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3988AC06-DA71-4764-B9D3-72F74B7282A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC2C6FC-57DD-4692-8488-AB140FCBBED3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8831E566-AC24-45AD-97A8-3DE41BA56712}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C2ECF-D241-42AC-854C-4F00A3D03F99}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0329872E-D190-4E8C-A07B-E5E22F5EFD6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C34B67C-4492-4E14-95EC-58365187B46A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC2C6FC-57DD-4692-8488-AB140FCBBED3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF9B21C-FA84-4B4E-8CC5-66D76EBA24F3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C2ECF-D241-42AC-854C-4F00A3D03F99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760E861C-FB5A-4731-897D-280BB03D5CC5}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C34B67C-4492-4E14-95EC-58365187B46A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BC95CA-0F4B-4E40-81DE-814B9040519A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF9B21C-FA84-4B4E-8CC5-66D76EBA24F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{570A88D3-F859-4DDF-B1FD-6C1F965F7FFD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760E861C-FB5A-4731-897D-280BB03D5CC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A9DCF2-41C5-4339-AE46-C246F3E7DEC1}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BC95CA-0F4B-4E40-81DE-814B9040519A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEA72F8-8B4A-4543-B00F-419150F59A67}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{570A88D3-F859-4DDF-B1FD-6C1F965F7FFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4708427-8589-432A-91B5-88916BAACB07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A9DCF2-41C5-4339-AE46-C246F3E7DEC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{568EC6EE-6F9A-4C04-BDB3-C850809C822A}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEA72F8-8B4A-4543-B00F-419150F59A67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646FB63D-C736-4DCB-956F-B59D3DD10A36}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4708427-8589-432A-91B5-88916BAACB07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3AE74D-0F78-492C-91CC-D8D117A4DDF7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{568EC6EE-6F9A-4C04-BDB3-C850809C822A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D1DBBD-AD59-4CF8-A9C1-CBDD037906E5}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646FB63D-C736-4DCB-956F-B59D3DD10A36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60F6316A-78AE-48A3-AA88-37001CD3B017}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3AE74D-0F78-492C-91CC-D8D117A4DDF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15316753-7199-4714-BD56-A2CFA6ADDD39}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D1DBBD-AD59-4CF8-A9C1-CBDD037906E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA2BA8F0-51C8-4B80-A061-1D9CEAF3731C}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -721,13 +721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60F6316A-78AE-48A3-AA88-37001CD3B017}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C486B92-5663-4211-89DC-13EAC2D7F8ED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15316753-7199-4714-BD56-A2CFA6ADDD39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F585DB-730E-4D07-9825-5E07DC2D9D95}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA2BA8F0-51C8-4B80-A061-1D9CEAF3731C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0002AF1D-85FD-4040-9B6C-A5ED27B613C3}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -463,271 +463,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4835AA70C4D8D429578EE9EA2DD985E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5664f08413005a6c659c6cf8d2b1ae07">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xmlns:ns3="90d378fd-e11f-44e1-bf8c-be94be6862ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da305ccf9ee6e1c1ef9ec698176e69e" ns2:_="" ns3:_="">
-    <xsd:import namespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c"/>
-    <xsd:import namespace="90d378fd-e11f-44e1-bf8c-be94be6862ca"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1953b641-ef7e-4547-82ac-62cfa4e0045b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="465bad51-02e6-4ee3-aca2-97a00dffbf5c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90d378fd-e11f-44e1-bf8c-be94be6862ca" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a5e3a396-6ff9-41c4-9ea6-a3ac188d4dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90d378fd-e11f-44e1-bf8c-be94be6862ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C486B92-5663-4211-89DC-13EAC2D7F8ED}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F585DB-730E-4D07-9825-5E07DC2D9D95}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0002AF1D-85FD-4040-9B6C-A5ED27B613C3}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1075"/>
+  <dimension ref="A1:F1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32532,7 +32532,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L20.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L19.pdf</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -32552,19 +32552,19 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L20.pdf</t>
+          <t>Docs_Criciuminha_L19.pdf</t>
         </is>
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>Lote 020</t>
+          <t>Lote 019</t>
         </is>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L23.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L20.pdf</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -32584,19 +32584,19 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L23.pdf</t>
+          <t>Docs_Criciuminha_L20.pdf</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 020</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criuciminha_L18.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L23.pdf</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -32616,19 +32616,19 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>Docs_Criuciminha_L18.pdf</t>
+          <t>Docs_Criciuminha_L23.pdf</t>
         </is>
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>Lote 018</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criuciminha_L18.pdf</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -32638,29 +32638,29 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>ETIENE</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>PR0062000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>Docs_Etiene_L06.pdf</t>
+          <t>Docs_Criuciminha_L18.pdf</t>
         </is>
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 018</t>
         </is>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L06.pdf</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -32680,19 +32680,19 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>Docs_Etiene_L07.pdf</t>
+          <t>Docs_Etiene_L06.pdf</t>
         </is>
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L07.pdf</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -32702,29 +32702,29 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>ETIENE</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0062000</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L10.pdf</t>
+          <t>Docs_Etiene_L07.pdf</t>
         </is>
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L18.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L10.pdf</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -32744,19 +32744,19 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L18.pdf</t>
+          <t>Docs_RondonIII_L10.pdf</t>
         </is>
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>Lote 018</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L23.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L18.pdf</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -32776,19 +32776,19 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L23.pdf</t>
+          <t>Docs_RondonIII_L18.pdf</t>
         </is>
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 018</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L23.pdf</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -32808,19 +32808,19 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L24.pdf</t>
+          <t>Docs_RondonIII_L23.pdf</t>
         </is>
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -32840,19 +32840,19 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L26.pdf</t>
+          <t>Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="F1013" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L36.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L26.pdf</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -32872,19 +32872,19 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L36.pdf</t>
+          <t>Docs_RondonIII_L26.pdf</t>
         </is>
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>Lote 036</t>
+          <t>Lote 026</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L36.pdf</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -32904,19 +32904,19 @@
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L37.pdf</t>
+          <t>Docs_RondonIII_L36.pdf</t>
         </is>
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>Lote 037</t>
+          <t>Lote 036</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L48.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -32936,19 +32936,19 @@
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L48.pdf</t>
+          <t>Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>Lote 048</t>
+          <t>Lote 037</t>
         </is>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L49.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L42.pdf</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -32968,19 +32968,19 @@
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L49.pdf</t>
+          <t>Docs_RondonIII_L42.pdf</t>
         </is>
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>Lote 049</t>
+          <t>Lote 042</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L63.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L48.pdf</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -33000,19 +33000,19 @@
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L63.pdf</t>
+          <t>Docs_RondonIII_L48.pdf</t>
         </is>
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>Lote 063</t>
+          <t>Lote 048</t>
         </is>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L68.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L49.pdf</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -33032,19 +33032,19 @@
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L68.pdf</t>
+          <t>Docs_RondonIII_L49.pdf</t>
         </is>
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>Lote 068</t>
+          <t>Lote 049</t>
         </is>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L74_Noeli.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L63.pdf</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -33064,19 +33064,19 @@
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L74_Noeli.pdf</t>
+          <t>Docs_RondonIII_L63.pdf</t>
         </is>
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>Lote 074</t>
+          <t>Lote 063</t>
         </is>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L09.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L68.pdf</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -33086,29 +33086,29 @@
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>PR0175000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L09.pdf</t>
+          <t>Docs_RondonIII_L68.pdf</t>
         </is>
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>Lote 009</t>
+          <t>Lote 068</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L74_Noeli.pdf</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -33118,29 +33118,29 @@
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>PR0175000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L17.pdf</t>
+          <t>Docs_RondonIII_L74_Noeli.pdf</t>
         </is>
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 074</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L22.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L09.pdf</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -33160,19 +33160,19 @@
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L22.pdf</t>
+          <t>Docs_SantaBarbara_L09.pdf</t>
         </is>
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>Lote 022</t>
+          <t>Lote 009</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L17.pdf</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -33192,19 +33192,19 @@
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L26.pdf</t>
+          <t>Docs_SantaBarbara_L17.pdf</t>
         </is>
       </c>
       <c r="F1024" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L22.pdf</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -33214,29 +33214,29 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L01.pdf</t>
+          <t>Docs_SantaBarbara_L22.pdf</t>
         </is>
       </c>
       <c r="F1025" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 022</t>
         </is>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L02.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L26.pdf</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -33246,29 +33246,29 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L02.pdf</t>
+          <t>Docs_SantaBarbara_L26.pdf</t>
         </is>
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>Lote 002</t>
+          <t>Lote 026</t>
         </is>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L01.pdf</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -33288,19 +33288,19 @@
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L10.pdf</t>
+          <t>Docs_SonhoDeRose_L01.pdf</t>
         </is>
       </c>
       <c r="F1027" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L02.pdf</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -33320,19 +33320,19 @@
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L16.pdf</t>
+          <t>Docs_SonhoDeRose_L02.pdf</t>
         </is>
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 002</t>
         </is>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhodeRose_L27.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L10.pdf</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -33352,19 +33352,19 @@
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>Docs_SonhodeRose_L27.pdf</t>
+          <t>Docs_SonhoDeRose_L10.pdf</t>
         </is>
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L28.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L16.pdf</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -33384,19 +33384,19 @@
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L28.pdf</t>
+          <t>Docs_SonhoDeRose_L16.pdf</t>
         </is>
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>Lote 028</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L73.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhodeRose_L27.pdf</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -33416,19 +33416,19 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L73.pdf</t>
+          <t>Docs_SonhodeRose_L27.pdf</t>
         </is>
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>Lote 073</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L118.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L28.pdf</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -33438,29 +33438,29 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L118.pdf</t>
+          <t>Docs_SonhoDeRose_L28.pdf</t>
         </is>
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>Lote 118</t>
+          <t>Lote 028</t>
         </is>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L132.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L73.pdf</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -33470,29 +33470,29 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L132.pdf</t>
+          <t>Docs_SonhoDeRose_L73.pdf</t>
         </is>
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>Lote 132</t>
+          <t>Lote 073</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L19.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L118.pdf</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -33512,19 +33512,19 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L19.pdf</t>
+          <t>Docs_12DeAbril_L118.pdf</t>
         </is>
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>Lote 019</t>
+          <t>Lote 118</t>
         </is>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L27.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L132.pdf</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -33544,19 +33544,19 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L27.pdf</t>
+          <t>Docs_12DeAbril_L132.pdf</t>
         </is>
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 132</t>
         </is>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L30.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L19.pdf</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -33576,19 +33576,19 @@
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L30.pdf</t>
+          <t>Docs_12DeAbril_L19.pdf</t>
         </is>
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 019</t>
         </is>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L33.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L27.pdf</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -33608,19 +33608,19 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L33.pdf</t>
+          <t>Docs_12DeAbril_L27.pdf</t>
         </is>
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>Lote 033</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L60.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L30.pdf</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -33640,19 +33640,19 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L60.pdf</t>
+          <t>Docs_12DeAbril_L30.pdf</t>
         </is>
       </c>
       <c r="F1038" t="inlineStr">
         <is>
-          <t>Lote 060</t>
+          <t>Lote 030</t>
         </is>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L65.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L33.pdf</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -33672,19 +33672,19 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L65.pdf</t>
+          <t>Docs_12DeAbril_L33.pdf</t>
         </is>
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>Lote 065</t>
+          <t>Lote 033</t>
         </is>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L73.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L60.pdf</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -33704,19 +33704,19 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L73.pdf</t>
+          <t>Docs_12DeAbril_L60.pdf</t>
         </is>
       </c>
       <c r="F1040" t="inlineStr">
         <is>
-          <t>Lote 073</t>
+          <t>Lote 060</t>
         </is>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L74.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L65.pdf</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -33736,19 +33736,19 @@
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L74.pdf</t>
+          <t>Docs_12DeAbril_L65.pdf</t>
         </is>
       </c>
       <c r="F1041" t="inlineStr">
         <is>
-          <t>Lote 074</t>
+          <t>Lote 065</t>
         </is>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_13DeAbril_L68.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L73.pdf</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
@@ -33768,19 +33768,19 @@
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>Docs_13DeAbril_L68.pdf</t>
+          <t>Docs_12DeAbril_L73.pdf</t>
         </is>
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>Lote 068</t>
+          <t>Lote 073</t>
         </is>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\02_lotes\Lote0202\Docs_12DeAbril_L202_Recebidos.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L74.pdf</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -33800,19 +33800,19 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L202_Recebidos.pdf</t>
+          <t>Docs_12DeAbril_L74.pdf</t>
         </is>
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>Lote 202</t>
+          <t>Lote 074</t>
         </is>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_13DeAbril_L68.pdf</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -33822,29 +33822,29 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L24.pdf</t>
+          <t>Docs_13DeAbril_L68.pdf</t>
         </is>
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 068</t>
         </is>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\02_lotes\Lote0202\Docs_12DeAbril_L202_Recebidos.pdf</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -33854,93 +33854,93 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L37.pdf</t>
+          <t>Docs_12DeAbril_L202_Recebidos.pdf</t>
         </is>
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>Lote 037</t>
+          <t>Lote 202</t>
         </is>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_boaVista_L05.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>Docs_boaVista_L05.pdf</t>
+          <t>Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L06.pdf</t>
+          <t>Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 037</t>
         </is>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L08.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_boaVista_L05.pdf</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -33960,19 +33960,19 @@
       </c>
       <c r="E1048" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L08.pdf</t>
+          <t>Docs_boaVista_L05.pdf</t>
         </is>
       </c>
       <c r="F1048" t="inlineStr">
         <is>
-          <t>Lote 008</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L10_Falta.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L06.pdf</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
@@ -33992,19 +33992,19 @@
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L10_Falta.pdf</t>
+          <t>Docs_BoaVista_L06.pdf</t>
         </is>
       </c>
       <c r="F1049" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L15.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L08.pdf</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
@@ -34024,19 +34024,19 @@
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L15.pdf</t>
+          <t>Docs_BoaVista_L08.pdf</t>
         </is>
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 008</t>
         </is>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L05.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L10_Falta.pdf</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
@@ -34046,29 +34046,29 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L05.pdf</t>
+          <t>Docs_BoaVista_L10_Falta.pdf</t>
         </is>
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L15.pdf</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
@@ -34078,29 +34078,29 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L06.pdf</t>
+          <t>Docs_BoaVista_L15.pdf</t>
         </is>
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L05.pdf</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
@@ -34120,19 +34120,19 @@
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L10.pdf</t>
+          <t>Docs_DonaTonia_L05.pdf</t>
         </is>
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L06.pdf</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
@@ -34152,19 +34152,19 @@
       </c>
       <c r="E1054" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L16.pdf</t>
+          <t>Docs_DonaTonia_L06.pdf</t>
         </is>
       </c>
       <c r="F1054" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L10.pdf</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
@@ -34184,19 +34184,19 @@
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L24.pdf</t>
+          <t>Docs_DonaTonia_L10.pdf</t>
         </is>
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L16.pdf</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
@@ -34216,19 +34216,19 @@
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L26.pdf</t>
+          <t>Docs_DonaTonia_L16.pdf</t>
         </is>
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L31.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L24.pdf</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
@@ -34248,19 +34248,19 @@
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L31.pdf</t>
+          <t>Docs_DonaTonia_L24.pdf</t>
         </is>
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>Lote 031</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\04_PAFazendaRetiro\01_docsRecebidosEmail_Wpp\Docs_FazendaRetiro_L04.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L26.pdf</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
@@ -34270,29 +34270,29 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>FAZENDA RETIRO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>PR0079000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>Docs_FazendaRetiro_L04.pdf</t>
+          <t>Docs_DonaTonia_L26.pdf</t>
         </is>
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>Lote 004</t>
+          <t>Lote 026</t>
         </is>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L31.pdf</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
@@ -34302,29 +34302,29 @@
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L01.pdf</t>
+          <t>Docs_DonaTonia_L31.pdf</t>
         </is>
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 031</t>
         </is>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\04_PAFazendaRetiro\01_docsRecebidosEmail_Wpp\Docs_FazendaRetiro_L04.pdf</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -34334,29 +34334,29 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>FAZENDA RETIRO</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>PR0079000</t>
         </is>
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L06.pdf</t>
+          <t>Docs_FazendaRetiro_L04.pdf</t>
         </is>
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 004</t>
         </is>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L01.pdf</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
@@ -34376,19 +34376,19 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L07.pdf</t>
+          <t>Docs_MeninoJesus_L01.pdf</t>
         </is>
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L06.pdf</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -34408,19 +34408,19 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L26.pdf</t>
+          <t>Docs_MeninoJesus_L06.pdf</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L30.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L07.pdf</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -34440,147 +34440,147 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L30.pdf</t>
+          <t>Docs_MeninoJesus_L07.pdf</t>
         </is>
       </c>
       <c r="F1063" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L26.pdf</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>MARILUZ</t>
+          <t>TIBAGI</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>MENINO JESUS</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>PR0407000</t>
+          <t>PR0161000</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>Docs_NSAparecida_L06.pdf</t>
+          <t>Docs_MeninoJesus_L26.pdf</t>
         </is>
       </c>
       <c r="F1064" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 026</t>
         </is>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L30.pdf</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>MARILUZ</t>
+          <t>TIBAGI</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>MENINO JESUS</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>PR0407000</t>
+          <t>PR0161000</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>Docs_NSAparecida_L07.pdf</t>
+          <t>Docs_MeninoJesus_L30.pdf</t>
         </is>
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 030</t>
         </is>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L06.pdf</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>MARILUZ</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>RANCHO ALEGRE</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>PR0228000</t>
+          <t>PR0407000</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>Docs_RanchoAlegre_L10.pdf</t>
+          <t>Docs_NSAparecida_L06.pdf</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L12.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L07.pdf</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>MARILUZ</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>RANCHO ALEGRE</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>PR0228000</t>
+          <t>PR0407000</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>Docs_RanchoAlegre_L12.pdf</t>
+          <t>Docs_NSAparecida_L07.pdf</t>
         </is>
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>Lote 012</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L10.pdf</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -34590,29 +34590,29 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>RANCHO ALEGRE</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0228000</t>
         </is>
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L01.pdf</t>
+          <t>Docs_RanchoAlegre_L10.pdf</t>
         </is>
       </c>
       <c r="F1068" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L09.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L12.pdf</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -34622,29 +34622,29 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>RANCHO ALEGRE</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0228000</t>
         </is>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L09.pdf</t>
+          <t>Docs_RanchoAlegre_L12.pdf</t>
         </is>
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>Lote 009</t>
+          <t>Lote 012</t>
         </is>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16(ou 21).pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L01.pdf</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -34664,19 +34664,19 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L16(ou 21).pdf</t>
+          <t>Docs_Rincao_L01.pdf</t>
         </is>
       </c>
       <c r="F1070" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L09.pdf</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -34696,19 +34696,19 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L16.pdf</t>
+          <t>Docs_Rincao_L09.pdf</t>
         </is>
       </c>
       <c r="F1071" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 009</t>
         </is>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16(ou 21).pdf</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -34728,19 +34728,19 @@
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L17.pdf</t>
+          <t>Docs_Rincao_L16(ou 21).pdf</t>
         </is>
       </c>
       <c r="F1072" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L19.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16.pdf</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
@@ -34760,19 +34760,19 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L19.pdf</t>
+          <t>Docs_Rincao_L16.pdf</t>
         </is>
       </c>
       <c r="F1073" t="inlineStr">
         <is>
-          <t>Lote 019</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L25.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L17.pdf</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -34792,42 +34792,106 @@
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L25.pdf</t>
+          <t>Docs_Rincao_L17.pdf</t>
         </is>
       </c>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L19.pdf</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L19.pdf</t>
+        </is>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>Lote 019</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L25.pdf</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L25.pdf</t>
+        </is>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>Lote 025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
           <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\09_PAVastoHorizonte\01_docsRecebidosEmail_Wpp\Docs_VastoHorizonte_L17.pdf</t>
         </is>
       </c>
-      <c r="B1075" t="inlineStr">
+      <c r="B1077" t="inlineStr">
         <is>
           <t>TIBAGI</t>
         </is>
       </c>
-      <c r="C1075" t="inlineStr">
+      <c r="C1077" t="inlineStr">
         <is>
           <t>VASTO HORIZONTE</t>
         </is>
       </c>
-      <c r="D1075" t="inlineStr">
+      <c r="D1077" t="inlineStr">
         <is>
           <t>PR0026000</t>
         </is>
       </c>
-      <c r="E1075" t="inlineStr">
+      <c r="E1077" t="inlineStr">
         <is>
           <t>Docs_VastoHorizonte_L17.pdf</t>
         </is>
       </c>
-      <c r="F1075" t="inlineStr">
+      <c r="F1077" t="inlineStr">
         <is>
           <t>Lote 017</t>
         </is>
@@ -35094,13 +35158,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ABEDE7A-DB3D-4219-80CB-C4CFF8B34253}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1656DAFD-4DFA-4FD6-8B43-B525EA0FB4FB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{131F258C-A7C6-4871-89FA-78AAC423876C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AC672C-BE57-40B0-A8E0-FF997EAD2747}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2173F9B0-658D-4F05-B1F6-5BFF25E14542}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F398E714-B04C-4C78-AF7F-61CDFF0167BC}"/>
 </file>
--- a/03_contDocsRecebidos.xlsx
+++ b/03_contDocsRecebidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1077"/>
+  <dimension ref="A1:F1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Caminho Completo</t>
+          <t>Caminho</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\003_mangueirinha_9PAs\04_PAFazendaCovozinho\01_area1\Lote0002\Docs_FazCov_lote02.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\003_mangueirinha_9PAs\04_PAFazendaCovozinho\02_lotes\01_area1\Lote0002\Docs_FazCov_lote02.pdf</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\003_mangueirinha_9PAs\04_PAFazendaCovozinho\01_area1\Lote0006\Docs_FazCov_Lote6.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\003_mangueirinha_9PAs\04_PAFazendaCovozinho\02_lotes\01_area1\Lote0006\Docs_FazCov_Lote6.pdf</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -29204,7 +29204,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L31.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L29.pdf</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -29224,19 +29224,19 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>Docs_SinhaAna_L31.pdf</t>
+          <t>Docs_SinhaAna_L29.pdf</t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>Lote 031</t>
+          <t>Lote 029</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L32.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L31.pdf</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -29256,19 +29256,19 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>Docs_SinhaAna_L32.pdf</t>
+          <t>Docs_SinhaAna_L31.pdf</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>Lote 032</t>
+          <t>Lote 031</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L6.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L32.pdf</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -29288,19 +29288,19 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>Docs_SinhaAna_L6.pdf</t>
+          <t>Docs_SinhaAna_L32.pdf</t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 032</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L7.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L6.pdf</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -29320,51 +29320,51 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>Docs_SinhaAna_L7.pdf</t>
+          <t>Docs_SinhaAna_L6.pdf</t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L04.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\016_reserva_7PAs\08_PASinhaAna\01_docsRecebidosEmail_Wpp\Docs_SinhaAna_L7.pdf</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>GUARAPUAVA</t>
+          <t>RESERVA</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>13 DE NOVEMBRO</t>
+          <t>SINHÁ ANA</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>PR0418000</t>
+          <t>PR0107000</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L04.pdf</t>
+          <t>Docs_SinhaAna_L7.pdf</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>Lote 004</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L04.pdf</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -29384,19 +29384,19 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L07.pdf</t>
+          <t>Docs_13DeNovembro_L04.pdf</t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 004</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L07.pdf</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -29416,19 +29416,19 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L10.pdf</t>
+          <t>Docs_13DeNovembro_L07.pdf</t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L11.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L10.pdf</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -29448,19 +29448,19 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L11.pdf</t>
+          <t>Docs_13DeNovembro_L10.pdf</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>Lote 011</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L15.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L11.pdf</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -29480,19 +29480,19 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L15.pdf</t>
+          <t>Docs_13DeNovembro_L11.pdf</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 011</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L27.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L15.pdf</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -29512,19 +29512,19 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L27.pdf</t>
+          <t>Docs_13DeNovembro_L15.pdf</t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L36.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L27.pdf</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -29544,19 +29544,19 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L36.pdf</t>
+          <t>Docs_13DeNovembro_L27.pdf</t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>Lote 036</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L39.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L36.pdf</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -29576,19 +29576,19 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L39.pdf</t>
+          <t>Docs_13DeNovembro_L36.pdf</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>Lote 039</t>
+          <t>Lote 036</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L41.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L39.pdf</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -29608,19 +29608,19 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L41.pdf</t>
+          <t>Docs_13DeNovembro_L39.pdf</t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>Lote 041</t>
+          <t>Lote 039</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L04.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_PA13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L41.pdf</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -29630,29 +29630,29 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>13 DE NOVEMBRO</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>PR0234000</t>
+          <t>PR0418000</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>Docs_Europa_L04.pdf</t>
+          <t>Docs_13DeNovembro_L41.pdf</t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>Lote 004</t>
+          <t>Lote 041</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L11.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L04.pdf</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -29672,19 +29672,19 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>Docs_Europa_L11.pdf</t>
+          <t>Docs_Europa_L04.pdf</t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>Lote 011</t>
+          <t>Lote 004</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L13.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L11.pdf</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -29704,19 +29704,19 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>Docs_Europa_L13.pdf</t>
+          <t>Docs_Europa_L11.pdf</t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>Lote 013</t>
+          <t>Lote 011</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L14.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L13.pdf</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -29736,19 +29736,19 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>Docs_Europa_L14.pdf</t>
+          <t>Docs_Europa_L13.pdf</t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 013</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L14.pdf</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -29768,19 +29768,19 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>Docs_Europa_L17.pdf</t>
+          <t>Docs_Europa_L14.pdf</t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L22.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L17.pdf</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -29800,19 +29800,19 @@
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>Docs_Europa_L22.pdf</t>
+          <t>Docs_Europa_L17.pdf</t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>Lote 022</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L22.pdf</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -29832,19 +29832,19 @@
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>Docs_Europa_L24.pdf</t>
+          <t>Docs_Europa_L22.pdf</t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 022</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L09.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L24.pdf</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -29854,29 +29854,29 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>FAZENDA BANANAS</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>PR0246000</t>
+          <t>PR0234000</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L09.pdf</t>
+          <t>Docs_Europa_L24.pdf</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>Lote 009</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L14_FaltaDocs.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L09.pdf</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -29896,19 +29896,19 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L14_FaltaDocs.pdf</t>
+          <t>Docs_Bananas_L09.pdf</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 009</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L15.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L14_FaltaDocs.pdf</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -29928,19 +29928,19 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L15.pdf</t>
+          <t>Docs_Bananas_L14_FaltaDocs.pdf</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L15.pdf</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -29960,19 +29960,19 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L17.pdf</t>
+          <t>Docs_Bananas_L15.pdf</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L23.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L17.pdf</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -29992,19 +29992,19 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L23.pdf</t>
+          <t>Docs_Bananas_L17.pdf</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L25_PedirCadLuiza.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L23.pdf</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -30024,19 +30024,19 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L25_PedirCadLuiza.pdf</t>
+          <t>Docs_Bananas_L23.pdf</t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L29.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L25_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -30056,19 +30056,19 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L29.pdf</t>
+          <t>Docs_Bananas_L25_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>Lote 029</t>
+          <t>Lote 025</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L34_PedirCadLuiza.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L29.pdf</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -30088,19 +30088,19 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L34_PedirCadLuiza.pdf</t>
+          <t>Docs_Bananas_L29.pdf</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>Lote 034</t>
+          <t>Lote 029</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L40.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L34_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -30120,19 +30120,19 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L40.pdf</t>
+          <t>Docs_Bananas_L34_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>Lote 040</t>
+          <t>Lote 034</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L46.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L40.pdf</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -30152,19 +30152,19 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L46.pdf</t>
+          <t>Docs_Bananas_L40.pdf</t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>Lote 046</t>
+          <t>Lote 040</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L51.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L46.pdf</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -30184,19 +30184,19 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L51.pdf</t>
+          <t>Docs_Bananas_L46.pdf</t>
         </is>
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>Lote 051</t>
+          <t>Lote 046</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L52.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L51.pdf</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -30216,19 +30216,19 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L52.pdf</t>
+          <t>Docs_Bananas_L51.pdf</t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>Lote 052</t>
+          <t>Lote 051</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L53.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L52.pdf</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -30248,19 +30248,19 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L53.pdf</t>
+          <t>Docs_Bananas_L52.pdf</t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>Lote 053</t>
+          <t>Lote 052</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L61.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L53.pdf</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -30280,19 +30280,19 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L61.pdf</t>
+          <t>Docs_Bananas_L53.pdf</t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>Lote 061</t>
+          <t>Lote 053</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L63.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L61.pdf</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -30312,19 +30312,19 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L63.pdf</t>
+          <t>Docs_Bananas_L61.pdf</t>
         </is>
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>Lote 063</t>
+          <t>Lote 061</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L89.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L63.pdf</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -30344,19 +30344,19 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L89.pdf</t>
+          <t>Docs_Bananas_L63.pdf</t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>Lote 089</t>
+          <t>Lote 063</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L90.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L89.pdf</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -30376,19 +30376,19 @@
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L90.pdf</t>
+          <t>Docs_Bananas_L89.pdf</t>
         </is>
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>Lote 090</t>
+          <t>Lote 089</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L90.pdf</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -30398,29 +30398,29 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>FAZENDA CAROLINA</t>
+          <t>FAZENDA BANANAS</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>PR0154000</t>
+          <t>PR0246000</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L01.pdf</t>
+          <t>Docs_Bananas_L90.pdf</t>
         </is>
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 090</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L05.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L01.pdf</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -30440,19 +30440,19 @@
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L05.pdf</t>
+          <t>Docs_Carolina_L01.pdf</t>
         </is>
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L06_PedirCadLuiza.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L05.pdf</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -30472,19 +30472,19 @@
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L06_PedirCadLuiza.pdf</t>
+          <t>Docs_Carolina_L05.pdf</t>
         </is>
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L06_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -30504,19 +30504,19 @@
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L10.pdf</t>
+          <t>Docs_Carolina_L06_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L13.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L10.pdf</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -30536,19 +30536,19 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L13.pdf</t>
+          <t>Docs_Carolina_L10.pdf</t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>Lote 013</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L14.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L13.pdf</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -30568,19 +30568,19 @@
       </c>
       <c r="E942" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L14.pdf</t>
+          <t>Docs_Carolina_L13.pdf</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 013</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L15.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L14.pdf</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -30600,19 +30600,19 @@
       </c>
       <c r="E943" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L15.pdf</t>
+          <t>Docs_Carolina_L14.pdf</t>
         </is>
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L15.pdf</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -30632,19 +30632,19 @@
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L17.pdf</t>
+          <t>Docs_Carolina_L15.pdf</t>
         </is>
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L23.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L17.pdf</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -30664,19 +30664,19 @@
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L23.pdf</t>
+          <t>Docs_Carolina_L17.pdf</t>
         </is>
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L23.pdf</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -30696,19 +30696,19 @@
       </c>
       <c r="E946" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L24.pdf</t>
+          <t>Docs_Carolina_L23.pdf</t>
         </is>
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L25.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L24.pdf</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -30728,19 +30728,19 @@
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L25.pdf</t>
+          <t>Docs_Carolina_L24.pdf</t>
         </is>
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L02.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L25.pdf</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -30750,29 +30750,29 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>NOVA GERAÇÃO</t>
+          <t>FAZENDA CAROLINA</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>PR0325000</t>
+          <t>PR0154000</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L02.pdf</t>
+          <t>Docs_Carolina_L25.pdf</t>
         </is>
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>Lote 002</t>
+          <t>Lote 025</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L04.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L02.pdf</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -30792,19 +30792,19 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L04.pdf</t>
+          <t>Docs_NovaGeração_L02.pdf</t>
         </is>
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>Lote 004</t>
+          <t>Lote 002</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L04.pdf</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -30824,19 +30824,19 @@
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L07.pdf</t>
+          <t>Docs_NovaGeração_L04.pdf</t>
         </is>
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 004</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L07.pdf</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -30856,19 +30856,19 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L16.pdf</t>
+          <t>Docs_NovaGeração_L07.pdf</t>
         </is>
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L20.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L16.pdf</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -30888,19 +30888,19 @@
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L20.pdf</t>
+          <t>Docs_NovaGeração_L16.pdf</t>
         </is>
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>Lote 020</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L22.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L20.pdf</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -30920,19 +30920,19 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L22.pdf</t>
+          <t>Docs_NovaGeração_L20.pdf</t>
         </is>
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>Lote 022</t>
+          <t>Lote 020</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L25.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L22.pdf</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -30952,19 +30952,19 @@
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L25.pdf</t>
+          <t>Docs_NovaGeração_L22.pdf</t>
         </is>
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 022</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L31.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L25.pdf</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -30984,19 +30984,19 @@
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L31.pdf</t>
+          <t>Docs_NovaGeração_L25.pdf</t>
         </is>
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>Lote 031</t>
+          <t>Lote 025</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L02.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L31.pdf</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -31006,29 +31006,29 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>SÃO PEDRO</t>
+          <t>NOVA GERAÇÃO</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>PR0077000</t>
+          <t>PR0325000</t>
         </is>
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L02.pdf</t>
+          <t>Docs_NovaGeração_L31.pdf</t>
         </is>
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>Lote 002</t>
+          <t>Lote 031</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L05.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L02.pdf</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -31048,19 +31048,19 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L05.pdf</t>
+          <t>Docs_SãoPedro_L02.pdf</t>
         </is>
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 002</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L05.pdf</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -31080,19 +31080,19 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L06.pdf</t>
+          <t>Docs_SãoPedro_L05.pdf</t>
         </is>
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L06.pdf</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -31112,19 +31112,19 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L07.pdf</t>
+          <t>Docs_SãoPedro_L06.pdf</t>
         </is>
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L07.pdf</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -31144,19 +31144,19 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L10.pdf</t>
+          <t>Docs_SãoPedro_L07.pdf</t>
         </is>
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L14.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L10.pdf</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -31176,19 +31176,19 @@
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L14.pdf</t>
+          <t>Docs_SãoPedro_L10.pdf</t>
         </is>
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L14.pdf</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -31208,19 +31208,19 @@
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L16.pdf</t>
+          <t>Docs_SãoPedro_L14.pdf</t>
         </is>
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L29_PedirCadLuiza.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L16.pdf</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -31240,19 +31240,19 @@
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L29_PedirCadLuiza.pdf</t>
+          <t>Docs_SãoPedro_L16.pdf</t>
         </is>
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>Lote 029</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L30.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L29_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -31272,19 +31272,19 @@
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L30.pdf</t>
+          <t>Docs_SãoPedro_L29_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 029</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L31.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L30.pdf</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -31304,19 +31304,19 @@
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L31.pdf</t>
+          <t>Docs_SãoPedro_L30.pdf</t>
         </is>
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>Lote 031</t>
+          <t>Lote 030</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L33.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L31.pdf</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -31336,19 +31336,19 @@
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L33.pdf</t>
+          <t>Docs_SãoPedro_L31.pdf</t>
         </is>
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>Lote 033</t>
+          <t>Lote 031</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L34.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L33.pdf</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -31368,19 +31368,19 @@
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L34.pdf</t>
+          <t>Docs_SãoPedro_L33.pdf</t>
         </is>
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>Lote 034</t>
+          <t>Lote 033</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L35.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L34.pdf</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -31400,51 +31400,51 @@
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L35.pdf</t>
+          <t>Docs_SãoPedro_L34.pdf</t>
         </is>
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>Lote 035</t>
+          <t>Lote 034</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L109.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L35.pdf</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>BITURUNA</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SÃO PEDRO</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0077000</t>
         </is>
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L109.pdf</t>
+          <t>Docs_SãoPedro_L35.pdf</t>
         </is>
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>Lote 109</t>
+          <t>Lote 035</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L118.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L109.pdf</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -31464,19 +31464,19 @@
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L118.pdf</t>
+          <t>Docs_12DeAbril_L109.pdf</t>
         </is>
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>Lote 118</t>
+          <t>Lote 109</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L12.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L117.pdf</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -31496,19 +31496,19 @@
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L12.pdf</t>
+          <t>Docs_12DeAbril_L117.pdf</t>
         </is>
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>Lote 012</t>
+          <t>Lote 117</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L132.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L118.pdf</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -31528,19 +31528,19 @@
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L132.pdf</t>
+          <t>Docs_12DeAbril_L118.pdf</t>
         </is>
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>Lote 132</t>
+          <t>Lote 118</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L133.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L12.pdf</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -31560,19 +31560,19 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L133.pdf</t>
+          <t>Docs_12DeAbril_L12.pdf</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>Lote 133</t>
+          <t>Lote 012</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L136.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L132.pdf</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -31592,19 +31592,19 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L136.pdf</t>
+          <t>Docs_12DeAbril_L132.pdf</t>
         </is>
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>Lote 136</t>
+          <t>Lote 132</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L138.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L133.pdf</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -31624,19 +31624,19 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L138.pdf</t>
+          <t>Docs_12DeAbril_L133.pdf</t>
         </is>
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>Lote 138</t>
+          <t>Lote 133</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L142.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L136.pdf</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -31656,19 +31656,19 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L142.pdf</t>
+          <t>Docs_12DeAbril_L136.pdf</t>
         </is>
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>Lote 142</t>
+          <t>Lote 136</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L155.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L138.pdf</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -31688,19 +31688,19 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L155.pdf</t>
+          <t>Docs_12DeAbril_L138.pdf</t>
         </is>
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>Lote 155</t>
+          <t>Lote 138</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L160.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L142.pdf</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -31720,19 +31720,19 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L160.pdf</t>
+          <t>Docs_12DeAbril_L142.pdf</t>
         </is>
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>Lote 160</t>
+          <t>Lote 142</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L167.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L155.pdf</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -31752,19 +31752,19 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L167.pdf</t>
+          <t>Docs_12DeAbril_L155.pdf</t>
         </is>
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>Lote 167</t>
+          <t>Lote 155</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L172.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L160.pdf</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -31784,19 +31784,19 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L172.pdf</t>
+          <t>Docs_12DeAbril_L160.pdf</t>
         </is>
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>Lote 172</t>
+          <t>Lote 160</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L189.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L163.pdf</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -31816,19 +31816,19 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L189.pdf</t>
+          <t>Docs_12DeAbril_L163.pdf</t>
         </is>
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>Lote 189</t>
+          <t>Lote 163</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L19.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L167.pdf</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -31848,19 +31848,19 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L19.pdf</t>
+          <t>Docs_12DeAbril_L167.pdf</t>
         </is>
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>Lote 019</t>
+          <t>Lote 167</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L194.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L169.pdf</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -31880,19 +31880,19 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L194.pdf</t>
+          <t>Docs_12DeAbril_L169.pdf</t>
         </is>
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>Lote 194</t>
+          <t>Lote 169</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L201.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L172.pdf</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -31912,19 +31912,19 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L201.pdf</t>
+          <t>Docs_12DeAbril_L172.pdf</t>
         </is>
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>Lote 201</t>
+          <t>Lote 172</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L204.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L182.pdf</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -31944,19 +31944,19 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L204.pdf</t>
+          <t>Docs_12DeAbril_L182.pdf</t>
         </is>
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>Lote 204</t>
+          <t>Lote 182</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L208.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L189.pdf</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -31976,19 +31976,19 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L208.pdf</t>
+          <t>Docs_12DeAbril_L189.pdf</t>
         </is>
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>Lote 208</t>
+          <t>Lote 189</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L209.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L19.pdf</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -32008,19 +32008,19 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L209.pdf</t>
+          <t>Docs_12DeAbril_L19.pdf</t>
         </is>
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>Lote 209</t>
+          <t>Lote 019</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L27.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L192.pdf</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -32040,19 +32040,19 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L27.pdf</t>
+          <t>Docs_12DeAbril_L192.pdf</t>
         </is>
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 192</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L30.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L194.pdf</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -32072,19 +32072,19 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L30.pdf</t>
+          <t>Docs_12DeAbril_L194.pdf</t>
         </is>
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 194</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L33.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L201.pdf</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -32104,19 +32104,19 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L33.pdf</t>
+          <t>Docs_12DeAbril_L201.pdf</t>
         </is>
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>Lote 033</t>
+          <t>Lote 201</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L36.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L204.pdf</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -32136,19 +32136,19 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L36.pdf</t>
+          <t>Docs_12DeAbril_L204.pdf</t>
         </is>
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>Lote 036</t>
+          <t>Lote 204</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L41.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L208.pdf</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -32168,19 +32168,19 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L41.pdf</t>
+          <t>Docs_12DeAbril_L208.pdf</t>
         </is>
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>Lote 041</t>
+          <t>Lote 208</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L43.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L209.pdf</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -32200,19 +32200,19 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L43.pdf</t>
+          <t>Docs_12DeAbril_L209.pdf</t>
         </is>
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>Lote 043</t>
+          <t>Lote 209</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L60.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L27.pdf</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -32232,19 +32232,19 @@
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L60.pdf</t>
+          <t>Docs_12DeAbril_L27.pdf</t>
         </is>
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>Lote 060</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L65.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L28.pdf</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -32264,19 +32264,19 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L65.pdf</t>
+          <t>Docs_12DeAbril_L28.pdf</t>
         </is>
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>Lote 065</t>
+          <t>Lote 028</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L73.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L30.pdf</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -32296,19 +32296,19 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L73.pdf</t>
+          <t>Docs_12DeAbril_L30.pdf</t>
         </is>
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>Lote 073</t>
+          <t>Lote 030</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L74.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L33.pdf</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -32328,19 +32328,19 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L74.pdf</t>
+          <t>Docs_12DeAbril_L33.pdf</t>
         </is>
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>Lote 074</t>
+          <t>Lote 033</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L77.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L36.pdf</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -32360,19 +32360,19 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L77.pdf</t>
+          <t>Docs_12DeAbril_L36.pdf</t>
         </is>
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>Lote 077</t>
+          <t>Lote 036</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L89.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L37.pdf</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -32392,19 +32392,19 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L89.pdf</t>
+          <t>Docs_12DeAbril_L37.pdf</t>
         </is>
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>Lote 089</t>
+          <t>Lote 037</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_13DeAbril_L68.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L41.pdf</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -32424,19 +32424,19 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>Docs_13DeAbril_L68.pdf</t>
+          <t>Docs_12DeAbril_L41.pdf</t>
         </is>
       </c>
       <c r="F1000" t="inlineStr">
         <is>
-          <t>Lote 068</t>
+          <t>Lote 041</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\02_lotes\Lote0202\Docs_12DeAbril_L202_Recebidos.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L43.pdf</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -32456,19 +32456,19 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L202_Recebidos.pdf</t>
+          <t>Docs_12DeAbril_L43.pdf</t>
         </is>
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>Lote 202</t>
+          <t>Lote 043</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L60.pdf</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -32478,29 +32478,29 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L01.pdf</t>
+          <t>Docs_12DeAbril_L60.pdf</t>
         </is>
       </c>
       <c r="F1002" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 060</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L09.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L65.pdf</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -32510,29 +32510,29 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L09.pdf</t>
+          <t>Docs_12DeAbril_L65.pdf</t>
         </is>
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>Lote 009</t>
+          <t>Lote 065</t>
         </is>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L19.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L72.pdf</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -32542,29 +32542,29 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L19.pdf</t>
+          <t>Docs_12DeAbril_L72.pdf</t>
         </is>
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>Lote 019</t>
+          <t>Lote 072</t>
         </is>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L20.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L73.pdf</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -32574,29 +32574,29 @@
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L20.pdf</t>
+          <t>Docs_12DeAbril_L73.pdf</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>Lote 020</t>
+          <t>Lote 073</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L23.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L74.pdf</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -32606,29 +32606,29 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>Docs_Criciuminha_L23.pdf</t>
+          <t>Docs_12DeAbril_L74.pdf</t>
         </is>
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 074</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criuciminha_L18.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L77.pdf</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -32638,29 +32638,29 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>Docs_Criuciminha_L18.pdf</t>
+          <t>Docs_12DeAbril_L77.pdf</t>
         </is>
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>Lote 018</t>
+          <t>Lote 077</t>
         </is>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L78.pdf</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -32670,29 +32670,29 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>ETIENE</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>PR0062000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>Docs_Etiene_L06.pdf</t>
+          <t>Docs_12DeAbril_L78.pdf</t>
         </is>
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 078</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L84.pdf</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -32702,29 +32702,29 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>ETIENE</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>PR0062000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>Docs_Etiene_L07.pdf</t>
+          <t>Docs_12DeAbril_L84.pdf</t>
         </is>
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 084</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L89.pdf</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -32734,29 +32734,29 @@
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L10.pdf</t>
+          <t>Docs_12DeAbril_L89.pdf</t>
         </is>
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 089</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L18.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L97.pdf</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -32766,29 +32766,29 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L18.pdf</t>
+          <t>Docs_12DeAbril_L97.pdf</t>
         </is>
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>Lote 018</t>
+          <t>Lote 097</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L23.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_13DeAbril_L68.pdf</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -32798,29 +32798,29 @@
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L23.pdf</t>
+          <t>Docs_13DeAbril_L68.pdf</t>
         </is>
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 068</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\02_PA12deAbril\02_lotes\Lote0202\Docs_12DeAbril_L202_Recebidos.pdf</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -32830,29 +32830,29 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L24.pdf</t>
+          <t>Docs_12DeAbril_L202_Recebidos.pdf</t>
         </is>
       </c>
       <c r="F1013" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 202</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L01.pdf</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -32862,29 +32862,29 @@
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L26.pdf</t>
+          <t>Docs_Criciuminha_L01.pdf</t>
         </is>
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L36.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L09.pdf</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -32894,29 +32894,29 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L36.pdf</t>
+          <t>Docs_Criciuminha_L09.pdf</t>
         </is>
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>Lote 036</t>
+          <t>Lote 009</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L18.pdf</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -32926,29 +32926,29 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L37.pdf</t>
+          <t>Docs_Criciuminha_L18.pdf</t>
         </is>
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>Lote 037</t>
+          <t>Lote 018</t>
         </is>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L42.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L19.pdf</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -32958,29 +32958,29 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L42.pdf</t>
+          <t>Docs_Criciuminha_L19.pdf</t>
         </is>
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>Lote 042</t>
+          <t>Lote 019</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L48.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L20.pdf</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -32990,29 +32990,29 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L48.pdf</t>
+          <t>Docs_Criciuminha_L20.pdf</t>
         </is>
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>Lote 048</t>
+          <t>Lote 020</t>
         </is>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L49.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\03_PACriciuminha\01_docsRecebidosEmail_Wpp\Docs_Criciuminha_L23.pdf</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -33022,29 +33022,29 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L49.pdf</t>
+          <t>Docs_Criciuminha_L23.pdf</t>
         </is>
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>Lote 049</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L63.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L06.pdf</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -33054,29 +33054,29 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>ETIENE</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0062000</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L63.pdf</t>
+          <t>Docs_Etiene_L06.pdf</t>
         </is>
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>Lote 063</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L68.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\04_PAEtiene\01_docsRecebidosEmail_Wpp\Docs_Etiene_L07.pdf</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -33086,29 +33086,29 @@
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>RONDON III</t>
+          <t>ETIENE</t>
         </is>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>PR0063000</t>
+          <t>PR0062000</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L68.pdf</t>
+          <t>Docs_Etiene_L07.pdf</t>
         </is>
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>Lote 068</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L74_Noeli.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L10.pdf</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -33128,19 +33128,19 @@
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L74_Noeli.pdf</t>
+          <t>Docs_RondonIII_L10.pdf</t>
         </is>
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>Lote 074</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L09.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L18.pdf</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -33150,29 +33150,29 @@
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t>PR0175000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L09.pdf</t>
+          <t>Docs_RondonIII_L18.pdf</t>
         </is>
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>Lote 009</t>
+          <t>Lote 018</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L23.pdf</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -33182,29 +33182,29 @@
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>PR0175000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L17.pdf</t>
+          <t>Docs_RondonIII_L23.pdf</t>
         </is>
       </c>
       <c r="F1024" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L22.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -33214,29 +33214,29 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
-          <t>PR0175000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L22.pdf</t>
+          <t>Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="F1025" t="inlineStr">
         <is>
-          <t>Lote 022</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L26.pdf</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -33246,17 +33246,17 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>PR0175000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>Docs_SantaBarbara_L26.pdf</t>
+          <t>Docs_RondonIII_L26.pdf</t>
         </is>
       </c>
       <c r="F1026" t="inlineStr">
@@ -33268,7 +33268,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L36.pdf</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -33278,29 +33278,29 @@
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L01.pdf</t>
+          <t>Docs_RondonIII_L36.pdf</t>
         </is>
       </c>
       <c r="F1027" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 036</t>
         </is>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L02.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -33310,29 +33310,29 @@
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L02.pdf</t>
+          <t>Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>Lote 002</t>
+          <t>Lote 037</t>
         </is>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L42.pdf</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -33342,29 +33342,29 @@
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L10.pdf</t>
+          <t>Docs_RondonIII_L42.pdf</t>
         </is>
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 042</t>
         </is>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L48.pdf</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -33374,29 +33374,29 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L16.pdf</t>
+          <t>Docs_RondonIII_L48.pdf</t>
         </is>
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 048</t>
         </is>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhodeRose_L27.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L49.pdf</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -33406,29 +33406,29 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>Docs_SonhodeRose_L27.pdf</t>
+          <t>Docs_RondonIII_L49.pdf</t>
         </is>
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 049</t>
         </is>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L28.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L63.pdf</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -33438,29 +33438,29 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L28.pdf</t>
+          <t>Docs_RondonIII_L63.pdf</t>
         </is>
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>Lote 028</t>
+          <t>Lote 063</t>
         </is>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L73.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L68.pdf</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -33470,29 +33470,29 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>SONHO DE ROSE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>PR0383000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>Docs_SonhoDeRose_L73.pdf</t>
+          <t>Docs_RondonIII_L68.pdf</t>
         </is>
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>Lote 073</t>
+          <t>Lote 068</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L118.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L74_Noeli.pdf</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -33502,29 +33502,29 @@
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L118.pdf</t>
+          <t>Docs_RondonIII_L74_Noeli.pdf</t>
         </is>
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>Lote 118</t>
+          <t>Lote 074</t>
         </is>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L132.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L79.pdf</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -33534,29 +33534,29 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L132.pdf</t>
+          <t>Docs_RondonIII_L79.pdf</t>
         </is>
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>Lote 132</t>
+          <t>Lote 079</t>
         </is>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L19.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L09.pdf</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -33566,29 +33566,29 @@
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L19.pdf</t>
+          <t>Docs_SantaBarbara_L09.pdf</t>
         </is>
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>Lote 019</t>
+          <t>Lote 009</t>
         </is>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L27.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L17.pdf</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -33598,29 +33598,29 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L27.pdf</t>
+          <t>Docs_SantaBarbara_L17.pdf</t>
         </is>
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L30.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L22.pdf</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -33630,29 +33630,29 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L30.pdf</t>
+          <t>Docs_SantaBarbara_L22.pdf</t>
         </is>
       </c>
       <c r="F1038" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 022</t>
         </is>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L33.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L26.pdf</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -33662,29 +33662,29 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L33.pdf</t>
+          <t>Docs_SantaBarbara_L26.pdf</t>
         </is>
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>Lote 033</t>
+          <t>Lote 026</t>
         </is>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L60.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\06_PASantaBarbara\01_docsRecebidosEmail_Wpp\Docs_SantaBarbara_L31.pdf</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -33694,29 +33694,29 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L60.pdf</t>
+          <t>Docs_SantaBarbara_L31.pdf</t>
         </is>
       </c>
       <c r="F1040" t="inlineStr">
         <is>
-          <t>Lote 060</t>
+          <t>Lote 031</t>
         </is>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L65.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L01.pdf</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -33726,29 +33726,29 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L65.pdf</t>
+          <t>Docs_SonhoDeRose_L01.pdf</t>
         </is>
       </c>
       <c r="F1041" t="inlineStr">
         <is>
-          <t>Lote 065</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L73.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L02.pdf</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
@@ -33758,29 +33758,29 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L73.pdf</t>
+          <t>Docs_SonhoDeRose_L02.pdf</t>
         </is>
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>Lote 073</t>
+          <t>Lote 002</t>
         </is>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L74.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L10.pdf</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -33790,29 +33790,29 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L74.pdf</t>
+          <t>Docs_SonhoDeRose_L10.pdf</t>
         </is>
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>Lote 074</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_13DeAbril_L68.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L12.pdf</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -33822,29 +33822,29 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>Docs_13DeAbril_L68.pdf</t>
+          <t>Docs_SonhoDeRose_L12.pdf</t>
         </is>
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>Lote 068</t>
+          <t>Lote 012</t>
         </is>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\02_lotes\Lote0202\Docs_12DeAbril_L202_Recebidos.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L16.pdf</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -33854,29 +33854,29 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>12 DE ABRIL</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>PR0178000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>Docs_12DeAbril_L202_Recebidos.pdf</t>
+          <t>Docs_SonhoDeRose_L16.pdf</t>
         </is>
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>Lote 202</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhodeRose_L27.pdf</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -33886,29 +33886,29 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L24.pdf</t>
+          <t>Docs_SonhodeRose_L27.pdf</t>
         </is>
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L28.pdf</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
@@ -33918,509 +33918,509 @@
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>Docs_RondonIII_L37.pdf</t>
+          <t>Docs_SonhoDeRose_L28.pdf</t>
         </is>
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>Lote 037</t>
+          <t>Lote 028</t>
         </is>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_boaVista_L05.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\07_PASonhodeRose\01_docsRecebidosEmail_Wpp\Docs_SonhoDeRose_L73.pdf</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="E1048" t="inlineStr">
         <is>
-          <t>Docs_boaVista_L05.pdf</t>
+          <t>Docs_SonhoDeRose_L73.pdf</t>
         </is>
       </c>
       <c r="F1048" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 073</t>
         </is>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L118.pdf</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L06.pdf</t>
+          <t>Docs_12DeAbril_L118.pdf</t>
         </is>
       </c>
       <c r="F1049" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 118</t>
         </is>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L08.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L132.pdf</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L08.pdf</t>
+          <t>Docs_12DeAbril_L132.pdf</t>
         </is>
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>Lote 008</t>
+          <t>Lote 132</t>
         </is>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L10_Falta.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L19.pdf</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L10_Falta.pdf</t>
+          <t>Docs_12DeAbril_L19.pdf</t>
         </is>
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 019</t>
         </is>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L15.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L27.pdf</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>BOA VISTA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>PR0149000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t>Docs_BoaVista_L15.pdf</t>
+          <t>Docs_12DeAbril_L27.pdf</t>
         </is>
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L05.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L30.pdf</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L05.pdf</t>
+          <t>Docs_12DeAbril_L30.pdf</t>
         </is>
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 030</t>
         </is>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L33.pdf</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L06.pdf</t>
+          <t>Docs_12DeAbril_L33.pdf</t>
         </is>
       </c>
       <c r="F1054" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 033</t>
         </is>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L60.pdf</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L10.pdf</t>
+          <t>Docs_12DeAbril_L60.pdf</t>
         </is>
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 060</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L65.pdf</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L16.pdf</t>
+          <t>Docs_12DeAbril_L65.pdf</t>
         </is>
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 065</t>
         </is>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L24.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L73.pdf</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L24.pdf</t>
+          <t>Docs_12DeAbril_L73.pdf</t>
         </is>
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 073</t>
         </is>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_12DeAbril_L74.pdf</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L26.pdf</t>
+          <t>Docs_12DeAbril_L74.pdf</t>
         </is>
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 074</t>
         </is>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L31.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\01_docsRecebidosEmail_Wpp\Docs_13DeAbril_L68.pdf</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>DONA TONIA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>PR0244000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>Docs_DonaTonia_L31.pdf</t>
+          <t>Docs_13DeAbril_L68.pdf</t>
         </is>
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>Lote 031</t>
+          <t>Lote 068</t>
         </is>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\04_PAFazendaRetiro\01_docsRecebidosEmail_Wpp\Docs_FazendaRetiro_L04.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\02_PA12deAbril\02_lotes\Lote0202\Docs_12DeAbril_L202_Recebidos.pdf</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>FAZENDA RETIRO</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>PR0079000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>Docs_FazendaRetiro_L04.pdf</t>
+          <t>Docs_12DeAbril_L202_Recebidos.pdf</t>
         </is>
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>Lote 004</t>
+          <t>Lote 202</t>
         </is>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L01.pdf</t>
+          <t>Docs_RondonIII_L24.pdf</t>
         </is>
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\018_bituruna_6PAs\14_paraOsTablets\05_PARondonIII\01_docsRecebidosEmail_Wpp\Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L06.pdf</t>
+          <t>Docs_RondonIII_L37.pdf</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 037</t>
         </is>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L04.pdf</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -34430,29 +34430,29 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L07.pdf</t>
+          <t>Docs_BoaVista_L04.pdf</t>
         </is>
       </c>
       <c r="F1063" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 004</t>
         </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L26.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_boaVista_L05.pdf</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -34462,29 +34462,29 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L26.pdf</t>
+          <t>Docs_boaVista_L05.pdf</t>
         </is>
       </c>
       <c r="F1064" t="inlineStr">
         <is>
-          <t>Lote 026</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L30.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L06.pdf</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
@@ -34494,93 +34494,93 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>MENINO JESUS</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>PR0161000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>Docs_MeninoJesus_L30.pdf</t>
+          <t>Docs_BoaVista_L06.pdf</t>
         </is>
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L06.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L08.pdf</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>MARILUZ</t>
+          <t>TIBAGI</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>PR0407000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>Docs_NSAparecida_L06.pdf</t>
+          <t>Docs_BoaVista_L08.pdf</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 008</t>
         </is>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L07.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L10_Falta.pdf</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>MARILUZ</t>
+          <t>TIBAGI</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>PR0407000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>Docs_NSAparecida_L07.pdf</t>
+          <t>Docs_BoaVista_L10_Falta.pdf</t>
         </is>
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L10.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_BoaVista_L15.pdf</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -34590,29 +34590,29 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>RANCHO ALEGRE</t>
+          <t>BOA VISTA</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>PR0228000</t>
+          <t>PR0149000</t>
         </is>
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>Docs_RanchoAlegre_L10.pdf</t>
+          <t>Docs_BoaVista_L15.pdf</t>
         </is>
       </c>
       <c r="F1068" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L12.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L05.pdf</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -34622,29 +34622,29 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>RANCHO ALEGRE</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>PR0228000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>Docs_RanchoAlegre_L12.pdf</t>
+          <t>Docs_DonaTonia_L05.pdf</t>
         </is>
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>Lote 012</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L01.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L06.pdf</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -34654,29 +34654,29 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L01.pdf</t>
+          <t>Docs_DonaTonia_L06.pdf</t>
         </is>
       </c>
       <c r="F1070" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L09.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L10.pdf</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -34686,29 +34686,29 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L09.pdf</t>
+          <t>Docs_DonaTonia_L10.pdf</t>
         </is>
       </c>
       <c r="F1071" t="inlineStr">
         <is>
-          <t>Lote 009</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16(ou 21).pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L16.pdf</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -34718,17 +34718,17 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L16(ou 21).pdf</t>
+          <t>Docs_DonaTonia_L16.pdf</t>
         </is>
       </c>
       <c r="F1072" t="inlineStr">
@@ -34740,7 +34740,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L22.pdf</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
@@ -34750,29 +34750,29 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L16.pdf</t>
+          <t>Docs_DonaTonia_L22.pdf</t>
         </is>
       </c>
       <c r="F1073" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 022</t>
         </is>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L17.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L23.pdf</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -34782,29 +34782,29 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L17.pdf</t>
+          <t>Docs_DonaTonia_L23.pdf</t>
         </is>
       </c>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L19.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L24.pdf</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -34814,29 +34814,29 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L19.pdf</t>
+          <t>Docs_DonaTonia_L24.pdf</t>
         </is>
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>Lote 019</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L25.pdf</t>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L26.pdf</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
@@ -34846,325 +34846,794 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>RINCÃO</t>
+          <t>DONA TONIA</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>PR0200000</t>
+          <t>PR0244000</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>Docs_Rincao_L25.pdf</t>
+          <t>Docs_DonaTonia_L26.pdf</t>
         </is>
       </c>
       <c r="F1076" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 026</t>
         </is>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L30.pdf</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>DONA TONIA</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>PR0244000</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>Docs_DonaTonia_L30.pdf</t>
+        </is>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>Lote 030</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\03_PADonaTonia\01_docsRecebidosEmail_Wpp\Docs_DonaTonia_L31.pdf</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>DONA TONIA</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>PR0244000</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>Docs_DonaTonia_L31.pdf</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>Lote 031</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\04_PAFazendaRetiro\01_docsRecebidosEmail_Wpp\Docs_FazendaRetiro_L04.pdf</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>FAZENDA RETIRO</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>PR0079000</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>Docs_FazendaRetiro_L04.pdf</t>
+        </is>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>Lote 004</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L01.pdf</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>Docs_MeninoJesus_L01.pdf</t>
+        </is>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>Lote 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L06.pdf</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>Docs_MeninoJesus_L06.pdf</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>Lote 006</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L07.pdf</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>Docs_MeninoJesus_L07.pdf</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>Lote 007</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L09.pdf</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>Docs_MeninoJesus_L09.pdf</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>Lote 009</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L26.pdf</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>Docs_MeninoJesus_L26.pdf</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>Lote 026</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\05_PAMeninoJesus\01_docsRecebidosEmail_Wpp\Docs_MeninoJesus_L30.pdf</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>Docs_MeninoJesus_L30.pdf</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>Lote 030</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L06.pdf</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>MARILUZ</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>PR0407000</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>Docs_NSAparecida_L06.pdf</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>Lote 006</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L07.pdf</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>MARILUZ</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>PR0407000</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>Docs_NSAparecida_L07.pdf</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>Lote 007</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\06_PANossaSenhoraAparecida\01_docsRecebidosEmail_Wpp\Docs_NSAparecida_L10.pdf</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>MARILUZ</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>PR0407000</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>Docs_NSAparecida_L10.pdf</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>Lote 010</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L10.pdf</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>RANCHO ALEGRE</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>PR0228000</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>Docs_RanchoAlegre_L10.pdf</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>Lote 010</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\07_PARanchoAlegre\01_docsRecebidosEmail_Wpp\Docs_RanchoAlegre_L12.pdf</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>RANCHO ALEGRE</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>PR0228000</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>Docs_RanchoAlegre_L12.pdf</t>
+        </is>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>Lote 012</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L01.pdf</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L01.pdf</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>Lote 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L09.pdf</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L09.pdf</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>Lote 009</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L15.pdf</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L15.pdf</t>
+        </is>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>Lote 015</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16(ou 21).pdf</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L16(ou 21).pdf</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>Lote 016</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L16.pdf</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L16.pdf</t>
+        </is>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>Lote 016</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L17.pdf</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L17.pdf</t>
+        </is>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>Lote 017</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L19.pdf</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L19.pdf</t>
+        </is>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>Lote 019</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\08_PARincao\01_docsRecebidosEmail_Wpp\Docs_Rincao_L25.pdf</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>Docs_Rincao_L25.pdf</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>Lote 025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
           <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\09_PAVastoHorizonte\01_docsRecebidosEmail_Wpp\Docs_VastoHorizonte_L17.pdf</t>
         </is>
       </c>
-      <c r="B1077" t="inlineStr">
+      <c r="B1099" t="inlineStr">
         <is>
           <t>TIBAGI</t>
         </is>
       </c>
-      <c r="C1077" t="inlineStr">
+      <c r="C1099" t="inlineStr">
         <is>
           <t>VASTO HORIZONTE</t>
         </is>
       </c>
-      <c r="D1077" t="inlineStr">
+      <c r="D1099" t="inlineStr">
         <is>
           <t>PR0026000</t>
         </is>
       </c>
-      <c r="E1077" t="inlineStr">
+      <c r="E1099" t="inlineStr">
         <is>
           <t>Docs_VastoHorizonte_L17.pdf</t>
         </is>
       </c>
-      <c r="F1077" t="inlineStr">
+      <c r="F1099" t="inlineStr">
         <is>
           <t>Lote 017</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>D:/ufpr.br/Intranet do LAGEAMB - TED-INCRA/02_SO/11_municipiosPAs\019_tibagi_8PAs\09_PAVastoHorizonte\01_docsRecebidosEmail_Wpp\Docs_VastoHorizonte_L20.pdf</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>VASTO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>PR0026000</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>Docs_VastoHorizonte_L20.pdf</t>
+        </is>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>Lote 020</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4835AA70C4D8D429578EE9EA2DD985E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5664f08413005a6c659c6cf8d2b1ae07">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xmlns:ns3="90d378fd-e11f-44e1-bf8c-be94be6862ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da305ccf9ee6e1c1ef9ec698176e69e" ns2:_="" ns3:_="">
-    <xsd:import namespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c"/>
-    <xsd:import namespace="90d378fd-e11f-44e1-bf8c-be94be6862ca"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1953b641-ef7e-4547-82ac-62cfa4e0045b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="465bad51-02e6-4ee3-aca2-97a00dffbf5c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90d378fd-e11f-44e1-bf8c-be94be6862ca" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a5e3a396-6ff9-41c4-9ea6-a3ac188d4dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90d378fd-e11f-44e1-bf8c-be94be6862ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1656DAFD-4DFA-4FD6-8B43-B525EA0FB4FB}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AC672C-BE57-40B0-A8E0-FF997EAD2747}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F398E714-B04C-4C78-AF7F-61CDFF0167BC}"/>
 </file>